--- a/sd_male_1.xlsx
+++ b/sd_male_1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
   <si>
     <t>MAV , CC</t>
   </si>
@@ -78,6 +78,9 @@
   <si>
     <t>Trace SD</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -324,6 +327,56 @@
         <v>8.604197941831778</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.214893869266642</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.31685260183757</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09659276956282732</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.1292335047760056</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.098768464166047</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>24.512879515709567</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.602021026943866</v>
+      </c>
+      <c r="W5" t="n">
+        <v>47.120555496791276</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26.72151088014013</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.2245348958382147</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10.21611061331623</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.356503642567655</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.11686252555076</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2.1029026328959746</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>13.217912666676108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -331,7 +384,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,6 +587,56 @@
         <v>4.867237409455183</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.786650621319176</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.43265846825278076</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.02016063691163692</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.6056941796591033</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.4970738233677594</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.0723072444488697</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.6612743109321678</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.7154593814473102</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.8509070446845253</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.5591553801068413</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4.162497253370293</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.5232598709605845</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.6066662581775155</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.4984498155721953</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.513314954422792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -541,7 +644,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -744,6 +847,56 @@
         <v>5.017303392593808</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9534349964893072</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.4535877163537654</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.009869870709335806</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.3357712825662778</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3212870866657497</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.097200265347342</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.1637489446532394</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12.637527234446589</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.055265290515431</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.386065040323955</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>16.78305056637168</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.7989486904779093</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.35185733881995</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.32279499985379073</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>6.705915274577396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -751,7 +904,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -954,6 +1107,56 @@
         <v>3.7321426672742413</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3020250752723126</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.286031999812233</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.006030287138562314</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.9374051388833822</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1885699755856789</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8689429003188571</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.30629695029351656</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.8408692862435623</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.4990503369013872</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.256043010685415</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.223399915912433</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.9922587267895462</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.9387872626464733</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.18871696911241098</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3.5152542214213764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -961,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,6 +1367,56 @@
         <v>4.1063636251825315</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7113889327236281</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.184461704380964</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01299024756854588</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.3565884086854325</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.31295469467048803</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.690201050649396</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.4978255338832527</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.389302950877209</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.8959530874299402</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.13131519304387</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>12.925354134672327</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.9657614359979847</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.3598715171646845</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.3131974671329547</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.830243274768485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1171,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1374,6 +1627,56 @@
         <v>6.509906980048862</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.2210148305333255</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8040471475847554</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.040085603606802654</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.8519001322455075</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.4237512450210554</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.8562952391808722</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.1597022672637765</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.413418649335684</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4.499786404915404</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.6626053018274212</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.744992594426925</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.4623736406438965</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.8590474031840096</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.4295183879214008</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>10.083647039971602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1381,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1584,6 +1887,56 @@
         <v>8.286267086102296</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.8781757037027862</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.014614369053966</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.04487216479174231</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.739809126112146</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.3644703031979173</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.423666276170358</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.8524606467213622</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13.047572934341057</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5.915291228934333</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.0524066225704882</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>19.208676512590447</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.157647121138232</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.747082055702881</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.3685327012917294</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>12.995531444384403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1591,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1794,6 +2147,56 @@
         <v>3.4674678561355594</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.191237989881796</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.1564687308464887</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03783923890304946</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.8951850290162195</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0968298844415403</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.44642027924112</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.9011181327719522</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13.744404066657047</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.686823396100787</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.0673244879946344</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.931095202395118</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>3.5536344451935826</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.9021477713646504</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.1006022830560447</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.546147868028649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1801,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2004,6 +2407,56 @@
         <v>5.530220007679019</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7200400878494136</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8461284980698109</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.021284438301384382</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.6612770846236042</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8132013605389447</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.840855472492482</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8035077812719719</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.019958918532936</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.640856756375026</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.7979949606287953</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.4133349137726325</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.937981946379794</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.661383530453627</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.8134908499384915</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.412902495220734</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2011,7 +2464,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2214,6 +2667,56 @@
         <v>7.652813571200826</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.128931249271518</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.634678233183999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.026539203612674894</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.339991748661066</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0891945039659352</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.8302181481988473</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.109028242647592</v>
+      </c>
+      <c r="W5" t="n">
+        <v>10.196329629866803</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.782127078977943</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.5264171872323449</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>23.622339527153198</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.027485396348004</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>5.344966597859989</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.090723265014922</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>12.883724454175841</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2221,7 +2724,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2424,6 +2927,56 @@
         <v>6.3369288039764715</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.692026973806738</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9879409415466222</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.06816479046456544</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.7680372538675722</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.9438335122153862</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.156608863306633</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.771500587635861</v>
+      </c>
+      <c r="W5" t="n">
+        <v>13.193330224528841</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8.747125508675522</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.8925643939991724</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>5.239274705885824</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.027895449878257</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.7637000211558016</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.9493692377137988</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>7.377110619966293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2431,7 +2984,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2634,6 +3187,56 @@
         <v>4.997888443021601</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.2957934248819587</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8160090357291533</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.028162900762625082</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.9861195694809382</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.555490403276907</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.303553285004162</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.8473911576837233</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.553471163154598</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.8866723061651456</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.8649518110013937</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.4765923597274835</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.8852898172851031</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.9878459615720219</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.5565534216990532</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.225038352982416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
